--- a/xlsx/开源软件_intext.xlsx
+++ b/xlsx/开源软件_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自由软件</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_开源软件</t>
+    <t>政策_政策_维基百科_开源软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%8B%9F%E5%99%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E6%96%AF%E6%89%98%E6%9B%BC</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%99%AF%E9%80%9A%E8%A8%8A%E5%AE%B6</t>
   </si>
   <si>
-    <t>網景通訊家</t>
+    <t>网景通讯家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B4%8D%E6%96%AF%C2%B7%E6%89%98%E7%93%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>林納斯·托瓦茲</t>
+    <t>林纳斯·托瓦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BF%83%E9%80%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>開放原始碼促進會</t>
+    <t>开放原始码促进会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DivX</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%91%84%E9%80%A0%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由軟體鑄造場</t>
+    <t>自由软体铸造场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%B5%81%E6%B0%93</t>
   </si>
   <si>
-    <t>專利流氓</t>
+    <t>专利流氓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/All_Rights_Reversed</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>開放內容</t>
+    <t>开放内容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%BA%90%E7%A1%AC%E4%BB%B6</t>
   </si>
   <si>
-    <t>開源硬件</t>
+    <t>开源硬件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%90%8C%E6%96%B9%E5%BC%8F%E5%85%B1%E4%BA%AB</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由文化運動</t>
+    <t>自由文化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E4%BD%9C%E5%85%B1%E7%94%A8</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organization_for_Transformative_Works</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>海盜灣</t>
+    <t>海盗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%85%9A</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E9%9B%B7%E5%B8%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·雷席格</t>
+    <t>劳伦斯·雷席格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E6%96%AF%E6%89%98%E6%9B%BC</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E8%B5%B0%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>幹走電影</t>
+    <t>干走电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>鴉片軟體</t>
+    <t>鸦片软体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Public_domain_software</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>啤酒軟體</t>
+    <t>啤酒软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%BD%AF%E4%BB%B6</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>共享軟體</t>
+    <t>共享软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%95%E7%94%A8%E8%BD%AF%E4%BB%B6</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>免費軟體</t>
+    <t>免费软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>廣告軟體</t>
+    <t>广告软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%90%E8%B5%A0%E8%BD%AF%E4%BB%B6</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E7%9C%BE%E5%8B%9F%E8%B3%87</t>
   </si>
   <si>
-    <t>群眾募資</t>
+    <t>群众募资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E5%A2%9E%E5%80%BC</t>
   </si>
   <si>
-    <t>免費增值</t>
+    <t>免费增值</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Careware</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/On-premises_software</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E5%94%AE</t>
   </si>
   <si>
-    <t>綁售</t>
+    <t>绑售</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%8D%B3%E6%9C%8D%E5%8A%A1</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E8%89%B2%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>灰色軟件</t>
+    <t>灰色软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E5%9A%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>恐嚇軟體</t>
+    <t>恐吓软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E5%9C%A8%E9%99%84%E5%8A%A0%E8%BD%AF%E4%BB%B6</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7%E4%BB%B6</t>
   </si>
   <si>
-    <t>霧件</t>
+    <t>雾件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E8%BD%AF%E4%BB%B6</t>
@@ -737,25 +737,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81%E5%A3%BD%E5%91%BD%E7%B5%90%E6%9D%9F</t>
   </si>
   <si>
-    <t>產品壽命結束</t>
+    <t>产品寿命结束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E6%94%AF%E6%8F%B4</t>
   </si>
   <si>
-    <t>長期支援</t>
+    <t>长期支援</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7%E8%80%85</t>
   </si>
   <si>
-    <t>軟體維護者</t>
+    <t>软体维护者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Software_publisher</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E6%96%B9%E5%BC%8F%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>軟體發行方式比較</t>
+    <t>软体发行方式比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>開放原始碼作業系統的比較</t>
+    <t>开放原始码作业系统的比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Darwin</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>貝爾實驗室九號計劃</t>
+    <t>贝尔实验室九号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ReactOS</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>開放原始碼軟體歷史</t>
+    <t>开放原始码软体历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Mozilla Firefox歷史</t>
+    <t>Mozilla Firefox历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Android</t>
@@ -1031,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Apache軟件基金會</t>
+    <t>Apache软件基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Blender基金會</t>
+    <t>Blender基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Linux基金會</t>
+    <t>Linux基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Symbian基金會</t>
+    <t>Symbian基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Xiph.Org基金會</t>
+    <t>Xiph.Org基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
@@ -1127,25 +1127,25 @@
     <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>X.Org基金會</t>
+    <t>X.Org基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>文檔基金會</t>
+    <t>文档基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>自由軟體許可證</t>
+    <t>自由软体许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Apache許可證</t>
+    <t>Apache许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
@@ -1163,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU通用公共許可證</t>
+    <t>GNU通用公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU較寬鬆公共許可證</t>
+    <t>GNU较宽松公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -1181,19 +1181,19 @@
     <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>ISC許可證</t>
+    <t>ISC许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>MIT許可證</t>
+    <t>MIT许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Mozilla公共許可證</t>
+    <t>Mozilla公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>自由及開放原始碼軟體許可證比較</t>
+    <t>自由及开放原始码软体许可证比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FUD</t>
@@ -1229,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
   </si>
   <si>
-    <t>擁抱、擴充功能再消滅</t>
+    <t>拥抱、扩充功能再消灭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Binary_blob</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>數位版權管理</t>
+    <t>数位版权管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
@@ -1283,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>自由軟體社群</t>
+    <t>自由软体社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux發行版</t>
+    <t>Linux发行版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由軟體運動</t>
+    <t>自由软体运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Open_Specification_Promise</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E5%8D%94%E5%90%8C%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>開放式協同合作</t>
+    <t>开放式协同合作</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_communication</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>開放資料</t>
+    <t>开放资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_design</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>開放科學</t>
+    <t>开放科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Opensource_Architecture</t>
@@ -1439,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%A9%A6%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>免試入學</t>
+    <t>免试入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BEWeb</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%95%99%E8%82%B2%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>開放教育資源</t>
+    <t>开放教育资源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_Music_Model</t>
@@ -1523,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%90%8A%E6%96%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·萊斯格</t>
+    <t>劳伦斯·莱斯格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Murray-Rust</t>
@@ -1577,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
